--- a/out_nadezhd.xlsx
+++ b/out_nadezhd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="39">
   <si>
     <t>May</t>
   </si>
@@ -23,7 +23,7 @@
     <t>nan</t>
   </si>
   <si>
-    <t>11.1445945946</t>
+    <t>10.0</t>
   </si>
   <si>
     <t>27.0</t>
@@ -32,7 +32,7 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>79.5243243243</t>
+    <t>87.0</t>
   </si>
   <si>
     <t>100.0</t>
@@ -41,25 +41,22 @@
     <t>21.0</t>
   </si>
   <si>
-    <t>12.1672378341</t>
+    <t>11.0</t>
   </si>
   <si>
     <t>-1.0</t>
   </si>
   <si>
-    <t>75.1932830706</t>
+    <t>82.0</t>
   </si>
   <si>
     <t>12.0</t>
   </si>
   <si>
-    <t>12.276146789</t>
-  </si>
-  <si>
     <t>26.0</t>
   </si>
   <si>
-    <t>68.5724770642</t>
+    <t>72.0</t>
   </si>
   <si>
     <t>8.0</t>
@@ -68,109 +65,73 @@
     <t>July</t>
   </si>
   <si>
-    <t>21.5470430108</t>
-  </si>
-  <si>
     <t>31.0</t>
   </si>
   <si>
     <t>15.0</t>
   </si>
   <si>
-    <t>85.123655914</t>
+    <t>88.0</t>
   </si>
   <si>
     <t>29.0</t>
   </si>
   <si>
-    <t>21.8747447243</t>
-  </si>
-  <si>
     <t>14.0</t>
   </si>
   <si>
-    <t>80.4152484683</t>
+    <t>83.0</t>
   </si>
   <si>
     <t>35.0</t>
   </si>
   <si>
-    <t>20.400357462</t>
+    <t>20.0</t>
   </si>
   <si>
     <t>32.0</t>
   </si>
   <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>80.1474530831</t>
-  </si>
-  <si>
     <t>30.0</t>
   </si>
   <si>
     <t>June</t>
   </si>
   <si>
-    <t>16.566572238</t>
-  </si>
-  <si>
-    <t>83.1543909348</t>
+    <t>16.0</t>
   </si>
   <si>
     <t>28.0</t>
   </si>
   <si>
-    <t>17.3261183261</t>
+    <t>17.0</t>
   </si>
   <si>
     <t>9.0</t>
   </si>
   <si>
-    <t>83.1443001443</t>
-  </si>
-  <si>
     <t>24.0</t>
   </si>
   <si>
-    <t>16.209382151</t>
-  </si>
-  <si>
-    <t>81.8935926773</t>
-  </si>
-  <si>
     <t>August</t>
   </si>
   <si>
-    <t>22.0619111709</t>
-  </si>
-  <si>
-    <t>82.0484522207</t>
+    <t>22.0</t>
   </si>
   <si>
     <t>40.0</t>
   </si>
   <si>
-    <t>20.8832764505</t>
-  </si>
-  <si>
-    <t>77.2464163823</t>
+    <t>79.0</t>
   </si>
   <si>
     <t>34.0</t>
   </si>
   <si>
-    <t>21.5094031071</t>
-  </si>
-  <si>
     <t>33.0</t>
   </si>
   <si>
     <t>13.0</t>
-  </si>
-  <si>
-    <t>84.9623875715</t>
   </si>
 </sst>
 </file>
@@ -275,10 +236,9 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.36224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="5.10204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.67857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.09183673469388"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.10204081632653"/>
     <col collapsed="false" hidden="false" max="10" min="8" style="0" width="4.53571428571429"/>
@@ -647,22 +607,22 @@
         <v>2015</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>1</v>
@@ -676,7 +636,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,22 +932,22 @@
         <v>2013</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="E24" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>1</v>
@@ -1004,22 +964,22 @@
         <v>2014</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>1</v>
@@ -1036,22 +996,22 @@
         <v>2015</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>1</v>
@@ -1065,7 +1025,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,22 +1321,22 @@
         <v>2013</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>1</v>
@@ -1393,22 +1353,22 @@
         <v>2014</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>1</v>
@@ -1425,22 +1385,22 @@
         <v>2015</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>1</v>
@@ -1454,7 +1414,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,22 +1710,22 @@
         <v>2013</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>1</v>
@@ -1782,22 +1742,22 @@
         <v>2014</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>1</v>
@@ -1814,22 +1774,22 @@
         <v>2015</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>1</v>
